--- a/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Trimestral.xlsx
+++ b/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Trimestral.xlsx
@@ -4149,16 +4149,16 @@
         <v>1682498</v>
       </c>
       <c r="E71">
-        <v>2652402</v>
+        <v>2652401</v>
       </c>
       <c r="F71">
         <v>5066812</v>
       </c>
       <c r="G71">
-        <v>7236192</v>
+        <v>7236191</v>
       </c>
       <c r="H71">
-        <v>-87969</v>
+        <v>-87970</v>
       </c>
       <c r="I71">
         <v>-2081410</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>145479</v>
+        <v>145478</v>
       </c>
       <c r="O71">
         <v>110581</v>

--- a/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Trimestral.xlsx
+++ b/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Trimestral.xlsx
@@ -4149,16 +4149,16 @@
         <v>1682498</v>
       </c>
       <c r="E71">
-        <v>2652401</v>
+        <v>2652402</v>
       </c>
       <c r="F71">
         <v>5066812</v>
       </c>
       <c r="G71">
-        <v>7236191</v>
+        <v>7236192</v>
       </c>
       <c r="H71">
-        <v>-87970</v>
+        <v>-87969</v>
       </c>
       <c r="I71">
         <v>-2081410</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>145478</v>
+        <v>145479</v>
       </c>
       <c r="O71">
         <v>110581</v>

--- a/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Trimestral.xlsx
+++ b/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Serie</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4143,10 +4146,10 @@
         <v>4944324</v>
       </c>
       <c r="C71">
-        <v>609424</v>
+        <v>598476</v>
       </c>
       <c r="D71">
-        <v>1682498</v>
+        <v>1693446</v>
       </c>
       <c r="E71">
         <v>2652402</v>
@@ -4183,6 +4186,56 @@
       </c>
       <c r="P71">
         <v>78671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72">
+        <v>4425361</v>
+      </c>
+      <c r="C72">
+        <v>-635540</v>
+      </c>
+      <c r="D72">
+        <v>2085095</v>
+      </c>
+      <c r="E72">
+        <v>2975807</v>
+      </c>
+      <c r="F72">
+        <v>5923889</v>
+      </c>
+      <c r="G72">
+        <v>8200053</v>
+      </c>
+      <c r="H72">
+        <v>-89706</v>
+      </c>
+      <c r="I72">
+        <v>-2186458</v>
+      </c>
+      <c r="J72">
+        <v>698215</v>
+      </c>
+      <c r="K72">
+        <v>270707</v>
+      </c>
+      <c r="L72">
+        <v>418539</v>
+      </c>
+      <c r="M72">
+        <v>8970</v>
+      </c>
+      <c r="N72">
+        <v>168727</v>
+      </c>
+      <c r="O72">
+        <v>123790</v>
+      </c>
+      <c r="P72">
+        <v>-96938</v>
       </c>
     </row>
   </sheetData>
